--- a/biology/Botanique/Stachys_pradica/Stachys_pradica.xlsx
+++ b/biology/Botanique/Stachys_pradica/Stachys_pradica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys pradica, l'Épiaire du mont Prada ou Épiaire hérissée est une plante herbacée vivace de la famille des Lamiacées et du genre des épiaires.
 Synonyme :
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante moyenne (15 à 40 cm) à feuilles crénelées. Les fleurs groupées en épi sont de couleur rose fuchsia. On différencie ses feuilles de celles des autres épiaires car elles sont laineuses et velues sur les deux faces. La tige est hérissée de longs poils. Elle pousse de 1 200 à 2 700 mètres dans les pelouses alpines.
 </t>
